--- a/src/main/java/eCom/Testdata/TutorialsNinjaTestData.xlsx
+++ b/src/main/java/eCom/Testdata/TutorialsNinjaTestData.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dheerendra\git\New-Project-DKV\src\main\java\com\tutorialsninja\qa\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dheerendra\eclipse-workspace\e-commerceSite\src\main\java\eCom\Testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85EB0076-2750-4030-BAB5-DDAA51B23004}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{912DFDEC-26E3-41FD-BF90-E37E2748F05A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D7623641-1D76-4CA1-A366-04F62E4AA1D3}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{D7623641-1D76-4CA1-A366-04F62E4AA1D3}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
+    <sheet name="CurrencyType" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t>Email</t>
   </si>
@@ -41,13 +42,37 @@
   </si>
   <si>
     <t>dheeruvish1608@gmail.com</t>
+  </si>
+  <si>
+    <t>Currency Type</t>
+  </si>
+  <si>
+    <t>Dollar</t>
+  </si>
+  <si>
+    <t>Pound</t>
+  </si>
+  <si>
+    <t>Euro</t>
+  </si>
+  <si>
+    <t>Expected Value</t>
+  </si>
+  <si>
+    <t>$US Dollar</t>
+  </si>
+  <si>
+    <t>£Pound Sterling</t>
+  </si>
+  <si>
+    <t>€Euro</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -62,6 +87,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="3">
@@ -106,11 +137,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -428,7 +460,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F41CE02-E721-4943-90D4-67B3987DFCAC}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
@@ -477,4 +509,58 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{652E28B8-FFB8-41B5-8BF2-0498E0A02684}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="13.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="4"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="4"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>